--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\睿应收\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\IdeaProjects\a---loading\ryuntech-su-cloud-emp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -27,24 +27,25 @@
     <sheet name="RYN_RECEIVABLE_CONTRACT(应收合同)" sheetId="37" r:id="rId13"/>
     <sheet name="RYN_CUSTOMER_USER_INFO(客户信息表)" sheetId="38" r:id="rId14"/>
     <sheet name="RYN_RECEIVABLE_COLLECTION_PLAN(" sheetId="39" r:id="rId15"/>
-    <sheet name="SYS_USER(角色表)" sheetId="41" r:id="rId16"/>
-    <sheet name="RYN_EMPLOYEE(职工表)" sheetId="49" r:id="rId17"/>
-    <sheet name="RYN_EMPLOYEE_DEPARTMENT(职工部门关联)" sheetId="50" r:id="rId18"/>
-    <sheet name="SYS_ROLE(角色表)" sheetId="42" r:id="rId19"/>
-    <sheet name="SYS_USER_ROLE(用户角色关联表)" sheetId="45" r:id="rId20"/>
-    <sheet name="SYS_PERM(权限表)" sheetId="43" r:id="rId21"/>
-    <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId22"/>
-    <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId23"/>
-    <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId24"/>
-    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId25"/>
-    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId26"/>
+    <sheet name="SYS_USER(用户表)" sheetId="41" r:id="rId16"/>
+    <sheet name="RYN_USER_WECHAT(微信表)" sheetId="51" r:id="rId17"/>
+    <sheet name="RYN_EMPLOYEE(职工表)" sheetId="49" r:id="rId18"/>
+    <sheet name="RYN_EMPLOYEE_DEPARTMENT(职工部门关联)" sheetId="50" r:id="rId19"/>
+    <sheet name="SYS_ROLE(角色表)" sheetId="42" r:id="rId20"/>
+    <sheet name="SYS_USER_ROLE(用户角色关联表)" sheetId="45" r:id="rId21"/>
+    <sheet name="SYS_PERM(权限表)" sheetId="43" r:id="rId22"/>
+    <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId23"/>
+    <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId24"/>
+    <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId25"/>
+    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId26"/>
+    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId27"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="433">
   <si>
     <t>字段名称</t>
   </si>
@@ -1820,6 +1821,91 @@
   </si>
   <si>
     <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryn_user_wechat(微信表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_user_wechat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户的唯一编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别(0女1男)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SESSION_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户的session_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2065,7 +2151,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2107,6 +2193,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,6 +2208,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2134,18 +2233,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2431,10 +2526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2458,7 +2553,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2468,7 +2563,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="12" t="s">
         <v>188</v>
       </c>
@@ -2476,7 +2571,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
         <v>189</v>
       </c>
@@ -2484,7 +2579,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="12" t="s">
         <v>190</v>
       </c>
@@ -2492,7 +2587,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>191</v>
       </c>
@@ -2500,7 +2595,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="12" t="s">
         <v>192</v>
       </c>
@@ -2508,7 +2603,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="12" t="s">
         <v>193</v>
       </c>
@@ -2516,7 +2611,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>202</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2526,7 +2621,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="12" t="s">
         <v>196</v>
       </c>
@@ -2534,7 +2629,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="12" t="s">
         <v>201</v>
       </c>
@@ -2542,111 +2637,119 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="12" t="s">
         <v>402</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="26" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="D14:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2659,15 +2762,15 @@
     <hyperlink ref="B4" location="'RYN_INFOR(资讯表)'!A1" display="ryn_infor(资讯表)"/>
     <hyperlink ref="B3" location="'RYN_ADDRESS(地址)'!A1" display="ryn_address(地址表)"/>
     <hyperlink ref="B2" location="'RYN_AGREEMENT(协议)'!A1" display="ryn_agreemnet(协议表)"/>
-    <hyperlink ref="B18" location="'SYS_ROLE_PERM(角色权限关联表)'!A1" display="sys_role_perm(角色对应权限关系表)"/>
-    <hyperlink ref="B17" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
-    <hyperlink ref="B15" location="'SYS_ROLE(角色表)'!A1" display="sys_role(角色表)"/>
+    <hyperlink ref="B19" location="'SYS_ROLE_PERM(角色权限关联表)'!A1" display="sys_role_perm(角色对应权限关系表)"/>
+    <hyperlink ref="B18" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
+    <hyperlink ref="B16" location="'SYS_ROLE(角色表)'!A1" display="sys_role(角色表)"/>
     <hyperlink ref="B12" location="'RYN_COMPANY(公司表)'!A1" display="ryn_company(公司表)"/>
-    <hyperlink ref="B13" location="'SYS_USER(角色表)'!A1" display="sys_user(用户表)"/>
-    <hyperlink ref="B14" location="'RYN_EMPLOYEE(职工表)'!A1" display="ryn_employee(职工表)"/>
-    <hyperlink ref="B16" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
-    <hyperlink ref="B19" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
-    <hyperlink ref="B20" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
+    <hyperlink ref="B14" location="'SYS_USER(角色表)'!A1" display="sys_user(用户表)"/>
+    <hyperlink ref="B15" location="'RYN_EMPLOYEE(职工表)'!A1" display="ryn_employee(职工表)"/>
+    <hyperlink ref="B17" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
+    <hyperlink ref="B20" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
+    <hyperlink ref="B21" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
     <hyperlink ref="B11" location="'RYN_CUSTOMER_USER_INFO(客户信息表)'!A1" display="ryn_customer_user_info(客户信息表)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,12 +2795,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -2810,12 +2913,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -2956,12 +3059,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3228,12 +3331,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3500,12 +3603,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3674,12 +3777,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3793,7 +3896,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3805,12 +3908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3921,6 +4024,137 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3937,12 +4171,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4037,7 +4271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4054,12 +4288,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4113,136 +4347,6 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="16.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4272,12 +4376,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.950000000000003" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4429,6 +4533,136 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="4" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4445,12 +4679,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4503,7 +4737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4520,12 +4754,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4593,7 +4827,7 @@
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="18" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4648,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4665,12 +4899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4742,7 +4976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4759,12 +4993,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4859,7 +5093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4876,12 +5110,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4934,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:D2"/>
@@ -4951,12 +5185,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4981,7 +5215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1"/>
@@ -5016,12 +5250,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5210,12 +5444,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5404,12 +5638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5564,12 +5798,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5724,12 +5958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5939,12 +6173,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -1853,10 +1853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPENID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信用户的唯一编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1906,6 +1902,10 @@
   </si>
   <si>
     <t>用户表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,6 +2198,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2235,12 +2241,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2528,8 +2528,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2553,7 +2553,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2563,7 +2563,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="12" t="s">
         <v>188</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="12" t="s">
         <v>189</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="12" t="s">
         <v>190</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
         <v>191</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="12" t="s">
         <v>192</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
         <v>193</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2621,7 +2621,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="12" t="s">
         <v>196</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="12" t="s">
         <v>201</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
         <v>402</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="12" t="s">
         <v>417</v>
       </c>
@@ -2653,73 +2653,73 @@
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="12" t="s">
         <v>302</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="12" t="s">
         <v>400</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="13" t="s">
         <v>296</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="13" t="s">
         <v>297</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
         <v>298</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="13" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
         <v>401</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="12" t="s">
         <v>301</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="25"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="22" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2729,7 +2729,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="12" t="s">
         <v>409</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="12" t="s">
         <v>410</v>
       </c>
@@ -2766,7 +2766,7 @@
     <hyperlink ref="B18" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
     <hyperlink ref="B16" location="'SYS_ROLE(角色表)'!A1" display="sys_role(角色表)"/>
     <hyperlink ref="B12" location="'RYN_COMPANY(公司表)'!A1" display="ryn_company(公司表)"/>
-    <hyperlink ref="B14" location="'SYS_USER(角色表)'!A1" display="sys_user(用户表)"/>
+    <hyperlink ref="B14" location="'SYS_USER(用户表)'!A1" display="sys_user(用户表)"/>
     <hyperlink ref="B15" location="'RYN_EMPLOYEE(职工表)'!A1" display="ryn_employee(职工表)"/>
     <hyperlink ref="B17" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
     <hyperlink ref="B20" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
@@ -2795,12 +2795,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -2913,12 +2913,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3059,12 +3059,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3331,12 +3331,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3603,12 +3603,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3777,12 +3777,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -3896,7 +3896,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3908,12 +3908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4027,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4039,12 +4039,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4061,87 +4061,87 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="B5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>427</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>431</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4159,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4171,12 +4171,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4288,12 +4288,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4376,12 +4376,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.950000000000003" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4537,7 +4537,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4548,12 +4548,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4667,7 +4667,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4679,12 +4679,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4754,12 +4754,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4899,12 +4899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -4993,12 +4993,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5110,12 +5110,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5185,12 +5185,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5250,12 +5250,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5444,12 +5444,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5638,12 +5638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5798,12 +5798,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -5958,12 +5958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -6173,12 +6173,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="432">
   <si>
     <t>字段名称</t>
   </si>
@@ -1471,31 +1471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ryn_department(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">DEPARTMENT_ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1609,31 +1584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ryn_employee(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMPLOYEE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1642,10 +1592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,40 +1628,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>sys_employee_department(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>职工部门关联表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1906,6 +1823,85 @@
   </si>
   <si>
     <t>OPEN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_department(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_employee_department(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职工部门关联表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_employee(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职工表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,8 +2524,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2639,7 +2635,7 @@
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="17"/>
@@ -2647,7 +2643,7 @@
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="17"/>
@@ -2665,7 +2661,7 @@
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="26"/>
@@ -2705,7 +2701,7 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="26"/>
@@ -2731,7 +2727,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="23"/>
       <c r="B23" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2739,7 +2735,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="24"/>
       <c r="B24" s="12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3292,7 +3288,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>206</v>
@@ -3301,7 +3297,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3724,21 +3720,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>232</v>
@@ -3747,7 +3743,7 @@
         <v>181</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3870,16 +3866,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3896,7 +3892,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4040,7 +4036,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="33" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4062,7 +4058,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>206</v>
@@ -4071,26 +4067,26 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>283</v>
@@ -4099,40 +4095,40 @@
         <v>197</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>206</v>
@@ -4141,7 +4137,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4172,7 +4168,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4194,7 +4190,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4203,12 +4199,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4217,26 +4213,26 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>206</v>
@@ -4245,21 +4241,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4272,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4289,7 +4285,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4311,7 +4307,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4320,12 +4316,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4334,19 +4330,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4355,6 +4351,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4537,7 +4534,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4667,7 +4664,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4922,7 +4919,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>350</v>
@@ -4931,12 +4928,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>350</v>
@@ -4945,26 +4942,26 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4981,7 +4978,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4994,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5016,49 +5013,49 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>341</v>
@@ -5067,21 +5064,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5108,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5133,30 +5130,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -2524,8 +2524,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2768,6 +2768,9 @@
     <hyperlink ref="B20" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
     <hyperlink ref="B21" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
     <hyperlink ref="B11" location="'RYN_CUSTOMER_USER_INFO(客户信息表)'!A1" display="ryn_customer_user_info(客户信息表)"/>
+    <hyperlink ref="B24" location="'RYN_RECEIVABLE_CONTRACT(应收合同)'!A1" display="ryn_receivable_contract(应收合同表)"/>
+    <hyperlink ref="B23" location="'RYN_RECEIVABLE_COLLECTION(回款表)'!A1" display="ryn_receivable_collection(回款表)"/>
+    <hyperlink ref="B22" location="'RYN_RECEIVABLE_COLLECTION_PLAN('!A1" display="ryn_receivable_collection_plan(回款计划表)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4154,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4264,6 +4267,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4272,7 +4276,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -30,22 +30,23 @@
     <sheet name="SYS_USER(用户表)" sheetId="41" r:id="rId16"/>
     <sheet name="RYN_USER_WECHAT(微信表)" sheetId="51" r:id="rId17"/>
     <sheet name="RYN_EMPLOYEE(职工表)" sheetId="49" r:id="rId18"/>
-    <sheet name="RYN_EMPLOYEE_DEPARTMENT(职工部门关联)" sheetId="50" r:id="rId19"/>
-    <sheet name="SYS_ROLE(角色表)" sheetId="42" r:id="rId20"/>
-    <sheet name="SYS_USER_ROLE(用户角色关联表)" sheetId="45" r:id="rId21"/>
-    <sheet name="SYS_PERM(权限表)" sheetId="43" r:id="rId22"/>
-    <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId23"/>
-    <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId24"/>
-    <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId25"/>
-    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId26"/>
-    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId27"/>
+    <sheet name="RYN_EMPLOYEE_ROLE(职工角色关联表)" sheetId="52" r:id="rId19"/>
+    <sheet name="RYN_EMPLOYEE_DEPARTMENT(职工部门关联)" sheetId="50" r:id="rId20"/>
+    <sheet name="SYS_ROLE(角色表)" sheetId="42" r:id="rId21"/>
+    <sheet name="SYS_USER_ROLE(用户角色关联表)" sheetId="45" r:id="rId22"/>
+    <sheet name="SYS_PERM(权限表)" sheetId="43" r:id="rId23"/>
+    <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId24"/>
+    <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId25"/>
+    <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId26"/>
+    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId27"/>
+    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId28"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="439">
   <si>
     <t>字段名称</t>
   </si>
@@ -839,10 +840,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ryn_receivable_contract</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1170,31 +1167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>sys_user(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1397,69 +1369,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>sys_role_perm(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>角色表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>sys_user_role(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>角色表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1902,6 +1820,159 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryn_receivable_contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_user(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_user_role(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户角色表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_perm(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys_role_perm(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色权限关联表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryn_employee_role(职工角色关联表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_employee_role(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职工角色关联表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2522,10 +2593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2635,7 +2706,7 @@
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="17"/>
@@ -2643,7 +2714,7 @@
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="12" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="17"/>
@@ -2651,17 +2722,17 @@
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="26"/>
@@ -2669,7 +2740,7 @@
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="26"/>
@@ -2677,7 +2748,7 @@
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="13" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="26"/>
@@ -2685,7 +2756,7 @@
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="26"/>
@@ -2693,7 +2764,7 @@
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="26"/>
@@ -2701,51 +2772,59 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="22" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="23"/>
       <c r="B23" s="12" t="s">
-        <v>404</v>
+        <v>276</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="D14:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2758,19 +2837,19 @@
     <hyperlink ref="B4" location="'RYN_INFOR(资讯表)'!A1" display="ryn_infor(资讯表)"/>
     <hyperlink ref="B3" location="'RYN_ADDRESS(地址)'!A1" display="ryn_address(地址表)"/>
     <hyperlink ref="B2" location="'RYN_AGREEMENT(协议)'!A1" display="ryn_agreemnet(协议表)"/>
-    <hyperlink ref="B19" location="'SYS_ROLE_PERM(角色权限关联表)'!A1" display="sys_role_perm(角色对应权限关系表)"/>
-    <hyperlink ref="B18" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
+    <hyperlink ref="B20" location="'SYS_ROLE_PERM(角色权限关联表)'!A1" display="sys_role_perm(角色对应权限关系表)"/>
+    <hyperlink ref="B19" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
     <hyperlink ref="B16" location="'SYS_ROLE(角色表)'!A1" display="sys_role(角色表)"/>
     <hyperlink ref="B12" location="'RYN_COMPANY(公司表)'!A1" display="ryn_company(公司表)"/>
     <hyperlink ref="B14" location="'SYS_USER(用户表)'!A1" display="sys_user(用户表)"/>
     <hyperlink ref="B15" location="'RYN_EMPLOYEE(职工表)'!A1" display="ryn_employee(职工表)"/>
-    <hyperlink ref="B17" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
-    <hyperlink ref="B20" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
-    <hyperlink ref="B21" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
+    <hyperlink ref="B18" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
+    <hyperlink ref="B21" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
+    <hyperlink ref="B22" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
     <hyperlink ref="B11" location="'RYN_CUSTOMER_USER_INFO(客户信息表)'!A1" display="ryn_customer_user_info(客户信息表)"/>
-    <hyperlink ref="B24" location="'RYN_RECEIVABLE_CONTRACT(应收合同)'!A1" display="ryn_receivable_contract(应收合同表)"/>
-    <hyperlink ref="B23" location="'RYN_RECEIVABLE_COLLECTION(回款表)'!A1" display="ryn_receivable_collection(回款表)"/>
-    <hyperlink ref="B22" location="'RYN_RECEIVABLE_COLLECTION_PLAN('!A1" display="ryn_receivable_collection_plan(回款计划表)"/>
+    <hyperlink ref="B25" location="'RYN_RECEIVABLE_CONTRACT(应收合同)'!A1" display="ryn_receivable_contract(应收合同表)"/>
+    <hyperlink ref="B24" location="'RYN_RECEIVABLE_COLLECTION(回款表)'!A1" display="ryn_receivable_collection(回款表)"/>
+    <hyperlink ref="B23" location="'RYN_RECEIVABLE_COLLECTION_PLAN('!A1" display="ryn_receivable_collection_plan(回款计划表)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3081,7 +3160,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3095,7 +3174,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -3112,7 +3191,7 @@
         <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>176</v>
@@ -3123,7 +3202,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>208</v>
@@ -3137,7 +3216,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>210</v>
@@ -3151,7 +3230,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>210</v>
@@ -3165,7 +3244,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>211</v>
@@ -3188,12 +3267,12 @@
         <v>197</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>198</v>
@@ -3202,12 +3281,12 @@
         <v>176</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>214</v>
@@ -3221,7 +3300,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>206</v>
@@ -3235,7 +3314,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>211</v>
@@ -3263,7 +3342,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>224</v>
@@ -3277,7 +3356,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>206</v>
@@ -3286,12 +3365,12 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>206</v>
@@ -3300,7 +3379,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3397,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3330,8 +3409,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
-        <v>227</v>
+      <c r="A1" s="31" t="s">
+        <v>427</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3353,7 +3432,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3362,12 +3441,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -3376,29 +3455,29 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -3409,49 +3488,49 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>211</v>
@@ -3460,12 +3539,12 @@
         <v>19</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>175</v>
@@ -3474,12 +3553,12 @@
         <v>19</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>175</v>
@@ -3488,12 +3567,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>175</v>
@@ -3502,7 +3581,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3516,54 +3595,54 @@
         <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>206</v>
@@ -3572,7 +3651,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3682,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3625,7 +3704,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3642,111 +3721,111 @@
         <v>221</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3799,7 +3878,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3808,12 +3887,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -3822,40 +3901,40 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>206</v>
@@ -3864,21 +3943,21 @@
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3974,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3908,7 +3987,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>303</v>
+        <v>430</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3930,7 +4009,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3939,77 +4018,77 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4118,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="33" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4061,7 +4140,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>206</v>
@@ -4070,68 +4149,68 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>197</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>206</v>
@@ -4140,7 +4219,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4157,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4171,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4193,7 +4272,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4202,12 +4281,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4216,26 +4295,26 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>206</v>
@@ -4244,21 +4323,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4273,23 +4352,23 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4311,7 +4390,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4320,12 +4399,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4334,19 +4413,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +4422,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4535,10 +4601,98 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4550,7 +4704,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4572,66 +4726,66 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -4642,16 +4796,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>333</v>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4663,12 +4831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4681,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4703,30 +4871,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4738,12 +4906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4756,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>318</v>
+        <v>432</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4778,21 +4946,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4801,57 +4969,57 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5">
       <c r="A6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>340</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -4862,16 +5030,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4883,12 +5051,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4901,7 +5069,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4923,49 +5091,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>371</v>
+      <c r="A6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4977,7 +5154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4995,7 +5172,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5017,72 +5194,72 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +5271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5112,7 +5289,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5134,30 +5311,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5169,7 +5346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:D2"/>
@@ -5216,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1"/>

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -22,31 +22,32 @@
     <sheet name="RYN_SENSITIVE_KEY_FILTER(敏感词" sheetId="14" r:id="rId8"/>
     <sheet name="RYN_CONTRACT(合同)" sheetId="6" state="hidden" r:id="rId9"/>
     <sheet name="RYN_SERIAL_NO(序列号生成表)" sheetId="15" r:id="rId10"/>
-    <sheet name="RYN_SYS_PARAMS(系统参数表)" sheetId="29" r:id="rId11"/>
-    <sheet name="RYN_RECEIVABLE_COLLECTION(回款表)" sheetId="36" r:id="rId12"/>
-    <sheet name="RYN_RECEIVABLE_CONTRACT(应收合同)" sheetId="37" r:id="rId13"/>
-    <sheet name="RYN_CUSTOMER_USER_INFO(客户信息表)" sheetId="38" r:id="rId14"/>
-    <sheet name="RYN_RECEIVABLE_COLLECTION_PLAN(" sheetId="39" r:id="rId15"/>
-    <sheet name="SYS_USER(用户表)" sheetId="41" r:id="rId16"/>
-    <sheet name="RYN_USER_WECHAT(微信表)" sheetId="51" r:id="rId17"/>
-    <sheet name="RYN_EMPLOYEE(职工表)" sheetId="49" r:id="rId18"/>
-    <sheet name="RYN_EMPLOYEE_ROLE(职工角色关联表)" sheetId="52" r:id="rId19"/>
-    <sheet name="RYN_EMPLOYEE_DEPARTMENT(职工部门关联)" sheetId="50" r:id="rId20"/>
-    <sheet name="SYS_ROLE(角色表)" sheetId="42" r:id="rId21"/>
-    <sheet name="SYS_USER_ROLE(用户角色关联表)" sheetId="45" r:id="rId22"/>
-    <sheet name="SYS_PERM(权限表)" sheetId="43" r:id="rId23"/>
-    <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId24"/>
-    <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId25"/>
-    <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId26"/>
-    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId27"/>
-    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId28"/>
+    <sheet name="RYN_ATTACHMENT(附件表)" sheetId="53" r:id="rId11"/>
+    <sheet name="RYN_SYS_PARAMS(系统参数表)" sheetId="29" r:id="rId12"/>
+    <sheet name="RYN_RECEIVABLE_COLLECTION(回款表)" sheetId="36" r:id="rId13"/>
+    <sheet name="RYN_RECEIVABLE_CONTRACT(应收合同)" sheetId="37" r:id="rId14"/>
+    <sheet name="RYN_CUSTOMER_USER_INFO(客户信息表)" sheetId="38" r:id="rId15"/>
+    <sheet name="RYN_RECEIVABLE_COLLECTION_PLAN(" sheetId="39" r:id="rId16"/>
+    <sheet name="SYS_USER(用户表)" sheetId="41" r:id="rId17"/>
+    <sheet name="RYN_USER_WECHAT(微信表)" sheetId="51" r:id="rId18"/>
+    <sheet name="RYN_EMPLOYEE(职工表)" sheetId="49" r:id="rId19"/>
+    <sheet name="RYN_EMPLOYEE_ROLE(职工角色关联表)" sheetId="52" r:id="rId20"/>
+    <sheet name="RYN_EMPLOYEE_DEPARTMENT(职工部门关联)" sheetId="50" r:id="rId21"/>
+    <sheet name="SYS_ROLE(角色表)" sheetId="42" r:id="rId22"/>
+    <sheet name="SYS_USER_ROLE(用户角色关联表)" sheetId="45" r:id="rId23"/>
+    <sheet name="SYS_PERM(权限表)" sheetId="43" r:id="rId24"/>
+    <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId25"/>
+    <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId26"/>
+    <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId27"/>
+    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId28"/>
+    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId29"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="458">
   <si>
     <t>字段名称</t>
   </si>
@@ -879,10 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONTRACT_AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合同金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1047,10 +1044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLAN_AMOUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,10 +1057,6 @@
   </si>
   <si>
     <t>VARCHAR2(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回款状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1581,15 +1570,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAN_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划回款时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1973,6 +1954,102 @@
   </si>
   <si>
     <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACT_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款状态(0逾期1已还款2未开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划回款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryn_attachment(附件表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryn_attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACHMENT_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACHMENT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATED_AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACHMENT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2593,10 +2670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2672,33 +2749,33 @@
     <row r="8" spans="1:4">
       <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
-        <v>193</v>
+        <v>439</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="22" t="s">
-        <v>202</v>
-      </c>
+      <c r="A9" s="21"/>
       <c r="B9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22" t="s">
+        <v>202</v>
+      </c>
       <c r="B10" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="23"/>
       <c r="B11" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2706,15 +2783,15 @@
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
-        <v>392</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="12" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="17"/>
@@ -2722,33 +2799,33 @@
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="12" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="25" t="s">
-        <v>299</v>
-      </c>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="12" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="25" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="13" t="s">
-        <v>436</v>
+        <v>292</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="26"/>
@@ -2756,7 +2833,7 @@
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="26"/>
@@ -2764,7 +2841,7 @@
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="26"/>
@@ -2772,7 +2849,7 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="26"/>
@@ -2780,76 +2857,85 @@
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="13" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="22" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="23"/>
       <c r="B24" s="12" t="s">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="24"/>
+      <c r="B26" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="D14:D22"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="D15:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" location="'RYN_BLACKLIST(黑名单)'!A1" display="ryn_blaklist(黑名单)"/>
-    <hyperlink ref="B9" location="'RYN_WHITELIST(白名单)'!A1" display="ryn_whitelist(白名单)"/>
-    <hyperlink ref="B8" location="'RYN_SYS_PARAMS(系统参数表)'!A1" display="ryn_sys_params(系统参数表)"/>
+    <hyperlink ref="B11" location="'RYN_BLACKLIST(黑名单)'!A1" display="ryn_blaklist(黑名单)"/>
+    <hyperlink ref="B10" location="'RYN_WHITELIST(白名单)'!A1" display="ryn_whitelist(白名单)"/>
+    <hyperlink ref="B9" location="'RYN_SYS_PARAMS(系统参数表)'!A1" display="ryn_sys_params(系统参数表)"/>
     <hyperlink ref="B7" location="'RYN_SERIAL_NO(序列号生成表)'!A1" display="ryn_serial_no(序列号表)"/>
     <hyperlink ref="B6" location="'RYN_SENSITIVE_KEY_FILTER(敏感词'!A1" display="ryn_sensitive_key_filter(敏感词表)"/>
     <hyperlink ref="B5" location="'RYN_IMAGE(图片表)'!A1" display="ryn_image(图片表)"/>
     <hyperlink ref="B4" location="'RYN_INFOR(资讯表)'!A1" display="ryn_infor(资讯表)"/>
     <hyperlink ref="B3" location="'RYN_ADDRESS(地址)'!A1" display="ryn_address(地址表)"/>
     <hyperlink ref="B2" location="'RYN_AGREEMENT(协议)'!A1" display="ryn_agreemnet(协议表)"/>
-    <hyperlink ref="B20" location="'SYS_ROLE_PERM(角色权限关联表)'!A1" display="sys_role_perm(角色对应权限关系表)"/>
-    <hyperlink ref="B19" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
-    <hyperlink ref="B16" location="'SYS_ROLE(角色表)'!A1" display="sys_role(角色表)"/>
-    <hyperlink ref="B12" location="'RYN_COMPANY(公司表)'!A1" display="ryn_company(公司表)"/>
-    <hyperlink ref="B14" location="'SYS_USER(用户表)'!A1" display="sys_user(用户表)"/>
-    <hyperlink ref="B15" location="'RYN_EMPLOYEE(职工表)'!A1" display="ryn_employee(职工表)"/>
-    <hyperlink ref="B18" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
-    <hyperlink ref="B21" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
-    <hyperlink ref="B22" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
-    <hyperlink ref="B11" location="'RYN_CUSTOMER_USER_INFO(客户信息表)'!A1" display="ryn_customer_user_info(客户信息表)"/>
-    <hyperlink ref="B25" location="'RYN_RECEIVABLE_CONTRACT(应收合同)'!A1" display="ryn_receivable_contract(应收合同表)"/>
-    <hyperlink ref="B24" location="'RYN_RECEIVABLE_COLLECTION(回款表)'!A1" display="ryn_receivable_collection(回款表)"/>
-    <hyperlink ref="B23" location="'RYN_RECEIVABLE_COLLECTION_PLAN('!A1" display="ryn_receivable_collection_plan(回款计划表)"/>
+    <hyperlink ref="B21" location="'SYS_ROLE_PERM(角色权限关联表)'!A1" display="sys_role_perm(角色对应权限关系表)"/>
+    <hyperlink ref="B20" location="'SYS_PERM(权限表)'!A1" display="sys_perm(权限表)"/>
+    <hyperlink ref="B17" location="'SYS_ROLE(角色表)'!A1" display="sys_role(角色表)"/>
+    <hyperlink ref="B13" location="'RYN_COMPANY(公司表)'!A1" display="ryn_company(公司表)"/>
+    <hyperlink ref="B15" location="'SYS_USER(用户表)'!A1" display="sys_user(用户表)"/>
+    <hyperlink ref="B16" location="'RYN_EMPLOYEE(职工表)'!A1" display="ryn_employee(职工表)"/>
+    <hyperlink ref="B19" location="'SYS_USER_ROLE(用户角色关联表)'!A1" display="sys_user_role(用户角色关联表)"/>
+    <hyperlink ref="B22" location="'RYN_EMPLOYEE_DEPARTMENT(职工部门关联)'!A1" display="sys_employee_department(职工部门关联表)"/>
+    <hyperlink ref="B23" location="'RYN_DEPARTMENT(部门表)'!A1" display="sys_department(部门表)"/>
+    <hyperlink ref="B12" location="'RYN_CUSTOMER_USER_INFO(客户信息表)'!A1" display="ryn_customer_user_info(客户信息表)"/>
+    <hyperlink ref="B26" location="'RYN_RECEIVABLE_CONTRACT(应收合同)'!A1" display="ryn_receivable_contract(应收合同表)"/>
+    <hyperlink ref="B25" location="'RYN_RECEIVABLE_COLLECTION(回款表)'!A1" display="ryn_receivable_collection(回款表)"/>
+    <hyperlink ref="B24" location="'RYN_RECEIVABLE_COLLECTION_PLAN('!A1" display="ryn_receivable_collection_plan(回款计划表)"/>
+    <hyperlink ref="B14" location="'RYN_USER_WECHAT(微信表)'!A1" display="ryn_user_wechat(微信表)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2861,13 +2947,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
@@ -2974,6 +3060,152 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:D9"/>
@@ -3120,12 +3352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3160,7 +3392,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3174,7 +3406,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -3202,7 +3434,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>278</v>
+        <v>435</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>208</v>
@@ -3216,7 +3448,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>210</v>
@@ -3230,7 +3462,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>210</v>
@@ -3244,7 +3476,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>211</v>
@@ -3267,12 +3499,12 @@
         <v>197</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>198</v>
@@ -3281,12 +3513,12 @@
         <v>176</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>214</v>
@@ -3300,7 +3532,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>206</v>
@@ -3314,7 +3546,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>211</v>
@@ -3342,7 +3574,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>224</v>
@@ -3356,7 +3588,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>206</v>
@@ -3370,7 +3602,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>206</v>
@@ -3379,7 +3611,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3392,12 +3624,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3410,7 +3642,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3432,7 +3664,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3446,7 +3678,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -3455,7 +3687,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3474,7 +3706,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>232</v>
@@ -3488,35 +3720,35 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>232</v>
@@ -3544,7 +3776,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>236</v>
+        <v>434</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>175</v>
@@ -3553,12 +3785,12 @@
         <v>19</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>175</v>
@@ -3567,12 +3799,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>175</v>
@@ -3581,7 +3813,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3595,40 +3827,40 @@
         <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>232</v>
@@ -3637,12 +3869,12 @@
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>206</v>
@@ -3651,7 +3883,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3664,12 +3896,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3682,7 +3914,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3704,7 +3936,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3724,71 +3956,71 @@
         <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>232</v>
@@ -3797,26 +4029,26 @@
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>231</v>
@@ -3825,7 +4057,7 @@
         <v>181</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3838,12 +4070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3851,12 +4083,12 @@
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3878,7 +4110,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -3887,12 +4119,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -3901,40 +4133,40 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>283</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>206</v>
@@ -3943,21 +4175,21 @@
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3987,7 +4219,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4009,7 +4241,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4018,208 +4250,77 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>421</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4234,9 +4335,140 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4250,7 +4482,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4272,7 +4504,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4281,12 +4513,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4295,26 +4527,26 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>206</v>
@@ -4323,21 +4555,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4347,81 +4579,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4601,6 +4758,81 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4617,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4639,7 +4871,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>206</v>
@@ -4648,12 +4880,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4662,19 +4894,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4687,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4704,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4726,66 +4958,66 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -4796,30 +5028,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +5063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4849,7 +5081,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4871,30 +5103,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4906,7 +5138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4924,7 +5156,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4946,21 +5178,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4969,57 +5201,57 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5">
       <c r="A6" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -5030,16 +5262,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -5069,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5091,58 +5323,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -5154,7 +5386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5172,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5194,72 +5426,72 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5289,7 +5521,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5311,30 +5543,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:D2"/>
@@ -5393,7 +5625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1"/>

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="25" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="457">
   <si>
     <t>字段名称</t>
   </si>
@@ -1561,9 +1561,6 @@
   <si>
     <t>ryn_company(公司表)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_ID</t>
   </si>
   <si>
     <t>回款计划编号</t>
@@ -1997,10 +1994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附件编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATTACHMENT_URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2050,6 +2043,10 @@
   </si>
   <si>
     <t>附件编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2672,8 +2669,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2749,7 +2746,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2799,7 +2796,7 @@
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="17"/>
@@ -2833,7 +2830,7 @@
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="26"/>
@@ -2891,7 +2888,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="23"/>
       <c r="B25" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2899,7 +2896,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3063,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3077,7 +3074,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>206</v>
@@ -3108,26 +3105,26 @@
         <v>19</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>278</v>
@@ -3136,12 +3133,12 @@
         <v>19</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>210</v>
@@ -3150,12 +3147,12 @@
         <v>140</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>210</v>
@@ -3164,35 +3161,35 @@
         <v>140</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3431,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>208</v>
@@ -3602,7 +3599,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>206</v>
@@ -3611,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3642,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3776,7 +3773,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>175</v>
@@ -3914,7 +3911,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4034,21 +4031,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>231</v>
@@ -4057,7 +4054,7 @@
         <v>181</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4072,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4133,7 +4130,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4161,7 +4158,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4180,16 +4177,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4206,7 +4203,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4219,7 +4216,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4350,7 +4347,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4372,7 +4369,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>206</v>
@@ -4381,26 +4378,26 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>280</v>
@@ -4409,40 +4406,40 @@
         <v>197</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>206</v>
@@ -4451,7 +4448,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4466,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4482,7 +4479,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>206</v>
@@ -4774,7 +4771,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4805,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4849,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5045,13 +5042,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>423</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5078,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5156,7 +5153,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5301,7 +5298,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5368,13 +5365,13 @@
         <v>363</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5507,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="25" activeTab="26"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="26" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -39,15 +39,16 @@
     <sheet name="SYS_ROLE_PERM(角色权限关联表)" sheetId="44" r:id="rId25"/>
     <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId26"/>
     <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId27"/>
-    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId28"/>
-    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId29"/>
+    <sheet name="RYN_FOLLOWUP_RECORD(跟进表)" sheetId="54" r:id="rId28"/>
+    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId29"/>
+    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId30"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="470">
   <si>
     <t>字段名称</t>
   </si>
@@ -2047,6 +2048,79 @@
   </si>
   <si>
     <t>PLAN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_followup_record(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟进表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFF_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFF_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACHMENT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOLLOWUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOLLOWUP_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4921,7 +4995,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A7" sqref="A7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5504,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5576,6 +5650,164 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:D2"/>
@@ -5619,23 +5851,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5830,6 +6045,23 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet32"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/睿应收-数据表设计.xlsx
+++ b/doc/睿应收-数据表设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="26" activeTab="27"/>
+    <workbookView xWindow="6135" yWindow="465" windowWidth="23925" windowHeight="15585" tabRatio="500" firstSheet="26" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="35" r:id="rId1"/>
@@ -40,15 +40,16 @@
     <sheet name="RYN_DEPARTMENT(部门表)" sheetId="47" r:id="rId26"/>
     <sheet name="RYN_COMPANY(公司表)" sheetId="48" r:id="rId27"/>
     <sheet name="RYN_FOLLOWUP_RECORD(跟进表)" sheetId="54" r:id="rId28"/>
-    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId29"/>
-    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="55" r:id="rId29"/>
+    <sheet name="RYN_ORDER_LOG(订单日志表)" sheetId="26" state="hidden" r:id="rId30"/>
+    <sheet name="RYN_MERCHANT_RATE(合伙人费率)" sheetId="21" state="hidden" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="471">
   <si>
     <t>字段名称</t>
   </si>
@@ -2121,6 +2122,31 @@
   </si>
   <si>
     <t>跟进时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ryn_overdue_records(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逾期记录表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5653,8 +5679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5809,23 +5835,21 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>161</v>
+        <v>470</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5843,6 +5867,118 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6049,6 +6185,53 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet31"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1"/>
